--- a/2023/spain_laliga_2023-2024.xlsx
+++ b/2023/spain_laliga_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V50"/>
+  <dimension ref="A1:V51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5057,6 +5057,98 @@
         </is>
       </c>
     </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>laliga</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E51" s="2" t="n">
+        <v>45191.875</v>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Alaves</t>
+        </is>
+      </c>
+      <c r="G51" t="n">
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Ath Bilbao</t>
+        </is>
+      </c>
+      <c r="I51" t="n">
+        <v>2</v>
+      </c>
+      <c r="J51" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>11/09/2023 13:17</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>22/09/2023 20:58</t>
+        </is>
+      </c>
+      <c r="N51" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>11/09/2023 13:17</t>
+        </is>
+      </c>
+      <c r="P51" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>22/09/2023 20:58</t>
+        </is>
+      </c>
+      <c r="R51" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="S51" t="inlineStr">
+        <is>
+          <t>11/09/2023 13:17</t>
+        </is>
+      </c>
+      <c r="T51" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="U51" t="inlineStr">
+        <is>
+          <t>22/09/2023 20:58</t>
+        </is>
+      </c>
+      <c r="V51" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/laliga/alaves-ath-bilbao/p4l2FzZA/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/spain_laliga_2023-2024.xlsx
+++ b/2023/spain_laliga_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V51"/>
+  <dimension ref="A1:V60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5149,6 +5149,834 @@
         </is>
       </c>
     </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>laliga</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E52" s="2" t="n">
+        <v>45192.58333333334</v>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Girona</t>
+        </is>
+      </c>
+      <c r="G52" t="n">
+        <v>5</v>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Mallorca</t>
+        </is>
+      </c>
+      <c r="I52" t="n">
+        <v>3</v>
+      </c>
+      <c r="J52" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>05/09/2023 12:02</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>23/09/2023 13:55</t>
+        </is>
+      </c>
+      <c r="N52" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>05/09/2023 12:02</t>
+        </is>
+      </c>
+      <c r="P52" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q52" t="inlineStr">
+        <is>
+          <t>23/09/2023 13:58</t>
+        </is>
+      </c>
+      <c r="R52" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="S52" t="inlineStr">
+        <is>
+          <t>05/09/2023 12:02</t>
+        </is>
+      </c>
+      <c r="T52" t="n">
+        <v>4.88</v>
+      </c>
+      <c r="U52" t="inlineStr">
+        <is>
+          <t>23/09/2023 13:55</t>
+        </is>
+      </c>
+      <c r="V52" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/laliga/girona-mallorca/0GnjIxkh/</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>laliga</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E53" s="2" t="n">
+        <v>45192.67708333334</v>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Osasuna</t>
+        </is>
+      </c>
+      <c r="G53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="I53" t="n">
+        <v>0</v>
+      </c>
+      <c r="J53" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>05/09/2023 12:02</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>23/09/2023 16:14</t>
+        </is>
+      </c>
+      <c r="N53" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>05/09/2023 12:02</t>
+        </is>
+      </c>
+      <c r="P53" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="Q53" t="inlineStr">
+        <is>
+          <t>23/09/2023 16:13</t>
+        </is>
+      </c>
+      <c r="R53" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="S53" t="inlineStr">
+        <is>
+          <t>05/09/2023 12:02</t>
+        </is>
+      </c>
+      <c r="T53" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="U53" t="inlineStr">
+        <is>
+          <t>23/09/2023 16:14</t>
+        </is>
+      </c>
+      <c r="V53" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/laliga/osasuna-sevilla/CjjfHd4b/</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>laliga</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E54" s="2" t="n">
+        <v>45192.77083333334</v>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="G54" t="n">
+        <v>3</v>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Celta Vigo</t>
+        </is>
+      </c>
+      <c r="I54" t="n">
+        <v>2</v>
+      </c>
+      <c r="J54" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>05/09/2023 12:02</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>23/09/2023 18:08</t>
+        </is>
+      </c>
+      <c r="N54" t="n">
+        <v>4.91</v>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>05/09/2023 12:02</t>
+        </is>
+      </c>
+      <c r="P54" t="n">
+        <v>6.77</v>
+      </c>
+      <c r="Q54" t="inlineStr">
+        <is>
+          <t>23/09/2023 18:29</t>
+        </is>
+      </c>
+      <c r="R54" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="S54" t="inlineStr">
+        <is>
+          <t>05/09/2023 12:02</t>
+        </is>
+      </c>
+      <c r="T54" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="U54" t="inlineStr">
+        <is>
+          <t>23/09/2023 18:29</t>
+        </is>
+      </c>
+      <c r="V54" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/laliga/barcelona-celta-vigo/v1bsKbKu/</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>laliga</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E55" s="2" t="n">
+        <v>45192.875</v>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Almeria</t>
+        </is>
+      </c>
+      <c r="G55" t="n">
+        <v>2</v>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Valencia</t>
+        </is>
+      </c>
+      <c r="I55" t="n">
+        <v>2</v>
+      </c>
+      <c r="J55" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>05/09/2023 12:02</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>23/09/2023 20:59</t>
+        </is>
+      </c>
+      <c r="N55" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>05/09/2023 12:02</t>
+        </is>
+      </c>
+      <c r="P55" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="Q55" t="inlineStr">
+        <is>
+          <t>23/09/2023 20:59</t>
+        </is>
+      </c>
+      <c r="R55" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="S55" t="inlineStr">
+        <is>
+          <t>05/09/2023 12:02</t>
+        </is>
+      </c>
+      <c r="T55" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="U55" t="inlineStr">
+        <is>
+          <t>23/09/2023 20:59</t>
+        </is>
+      </c>
+      <c r="V55" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/laliga/almeria-valencia/ELsWCsDC/</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>laliga</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E56" s="2" t="n">
+        <v>45193.58333333334</v>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Real Sociedad</t>
+        </is>
+      </c>
+      <c r="G56" t="n">
+        <v>4</v>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Getafe</t>
+        </is>
+      </c>
+      <c r="I56" t="n">
+        <v>3</v>
+      </c>
+      <c r="J56" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>05/09/2023 12:02</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>24/09/2023 13:40</t>
+        </is>
+      </c>
+      <c r="N56" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>05/09/2023 12:02</t>
+        </is>
+      </c>
+      <c r="P56" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="Q56" t="inlineStr">
+        <is>
+          <t>24/09/2023 13:40</t>
+        </is>
+      </c>
+      <c r="R56" t="n">
+        <v>6.83</v>
+      </c>
+      <c r="S56" t="inlineStr">
+        <is>
+          <t>05/09/2023 12:02</t>
+        </is>
+      </c>
+      <c r="T56" t="n">
+        <v>6.71</v>
+      </c>
+      <c r="U56" t="inlineStr">
+        <is>
+          <t>24/09/2023 13:40</t>
+        </is>
+      </c>
+      <c r="V56" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/laliga/real-sociedad-getafe/2uq7EflH/</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>laliga</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E57" s="2" t="n">
+        <v>45193.67708333334</v>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Rayo Vallecano</t>
+        </is>
+      </c>
+      <c r="G57" t="n">
+        <v>1</v>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Villarreal</t>
+        </is>
+      </c>
+      <c r="I57" t="n">
+        <v>1</v>
+      </c>
+      <c r="J57" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>05/09/2023 12:02</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>24/09/2023 16:11</t>
+        </is>
+      </c>
+      <c r="N57" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>05/09/2023 12:02</t>
+        </is>
+      </c>
+      <c r="P57" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="Q57" t="inlineStr">
+        <is>
+          <t>24/09/2023 15:54</t>
+        </is>
+      </c>
+      <c r="R57" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="S57" t="inlineStr">
+        <is>
+          <t>05/09/2023 12:02</t>
+        </is>
+      </c>
+      <c r="T57" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="U57" t="inlineStr">
+        <is>
+          <t>24/09/2023 16:11</t>
+        </is>
+      </c>
+      <c r="V57" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/laliga/rayo-vallecano-villarreal/6DkbGGJ4/</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>laliga</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E58" s="2" t="n">
+        <v>45193.77083333334</v>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Betis</t>
+        </is>
+      </c>
+      <c r="G58" t="n">
+        <v>1</v>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Cadiz CF</t>
+        </is>
+      </c>
+      <c r="I58" t="n">
+        <v>1</v>
+      </c>
+      <c r="J58" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>05/09/2023 12:02</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>24/09/2023 18:26</t>
+        </is>
+      </c>
+      <c r="N58" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>05/09/2023 12:02</t>
+        </is>
+      </c>
+      <c r="P58" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="Q58" t="inlineStr">
+        <is>
+          <t>24/09/2023 18:26</t>
+        </is>
+      </c>
+      <c r="R58" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="S58" t="inlineStr">
+        <is>
+          <t>05/09/2023 12:02</t>
+        </is>
+      </c>
+      <c r="T58" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="U58" t="inlineStr">
+        <is>
+          <t>24/09/2023 18:26</t>
+        </is>
+      </c>
+      <c r="V58" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/laliga/betis-cadiz/IicoJIZo/</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>laliga</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E59" s="2" t="n">
+        <v>45193.77083333334</v>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Las Palmas</t>
+        </is>
+      </c>
+      <c r="G59" t="n">
+        <v>1</v>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Granada CF</t>
+        </is>
+      </c>
+      <c r="I59" t="n">
+        <v>0</v>
+      </c>
+      <c r="J59" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>11/09/2023 13:19</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>24/09/2023 18:19</t>
+        </is>
+      </c>
+      <c r="N59" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>11/09/2023 13:19</t>
+        </is>
+      </c>
+      <c r="P59" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="Q59" t="inlineStr">
+        <is>
+          <t>24/09/2023 18:27</t>
+        </is>
+      </c>
+      <c r="R59" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="S59" t="inlineStr">
+        <is>
+          <t>11/09/2023 13:19</t>
+        </is>
+      </c>
+      <c r="T59" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="U59" t="inlineStr">
+        <is>
+          <t>24/09/2023 18:27</t>
+        </is>
+      </c>
+      <c r="V59" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/laliga/las-palmas-granada-cf/tWsBDE3N/</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>laliga</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E60" s="2" t="n">
+        <v>45193.875</v>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Atl. Madrid</t>
+        </is>
+      </c>
+      <c r="G60" t="n">
+        <v>3</v>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Real Madrid</t>
+        </is>
+      </c>
+      <c r="I60" t="n">
+        <v>1</v>
+      </c>
+      <c r="J60" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>05/09/2023 12:02</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>24/09/2023 20:55</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>05/09/2023 12:02</t>
+        </is>
+      </c>
+      <c r="P60" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="Q60" t="inlineStr">
+        <is>
+          <t>24/09/2023 20:59</t>
+        </is>
+      </c>
+      <c r="R60" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="S60" t="inlineStr">
+        <is>
+          <t>05/09/2023 12:02</t>
+        </is>
+      </c>
+      <c r="T60" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="U60" t="inlineStr">
+        <is>
+          <t>24/09/2023 20:56</t>
+        </is>
+      </c>
+      <c r="V60" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/laliga/atl-madrid-real-madrid/hCtzC1SI/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/spain_laliga_2023-2024.xlsx
+++ b/2023/spain_laliga_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V60"/>
+  <dimension ref="A1:V62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5977,6 +5977,190 @@
         </is>
       </c>
     </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>laliga</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E61" s="2" t="n">
+        <v>45195.79166666666</v>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="G61" t="n">
+        <v>5</v>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Almeria</t>
+        </is>
+      </c>
+      <c r="I61" t="n">
+        <v>1</v>
+      </c>
+      <c r="J61" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>16/09/2023 21:01</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>26/09/2023 18:57</t>
+        </is>
+      </c>
+      <c r="N61" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>16/09/2023 21:01</t>
+        </is>
+      </c>
+      <c r="P61" t="n">
+        <v>3.97</v>
+      </c>
+      <c r="Q61" t="inlineStr">
+        <is>
+          <t>26/09/2023 18:56</t>
+        </is>
+      </c>
+      <c r="R61" t="n">
+        <v>5.18</v>
+      </c>
+      <c r="S61" t="inlineStr">
+        <is>
+          <t>16/09/2023 21:01</t>
+        </is>
+      </c>
+      <c r="T61" t="n">
+        <v>5.18</v>
+      </c>
+      <c r="U61" t="inlineStr">
+        <is>
+          <t>26/09/2023 18:57</t>
+        </is>
+      </c>
+      <c r="V61" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/laliga/sevilla-almeria/EJCPWy4o/</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>laliga</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E62" s="2" t="n">
+        <v>45195.89583333334</v>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Mallorca</t>
+        </is>
+      </c>
+      <c r="G62" t="n">
+        <v>2</v>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="I62" t="n">
+        <v>2</v>
+      </c>
+      <c r="J62" t="n">
+        <v>5.49</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>17/09/2023 01:02</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>26/09/2023 21:13</t>
+        </is>
+      </c>
+      <c r="N62" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>17/09/2023 01:02</t>
+        </is>
+      </c>
+      <c r="P62" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="Q62" t="inlineStr">
+        <is>
+          <t>26/09/2023 21:13</t>
+        </is>
+      </c>
+      <c r="R62" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S62" t="inlineStr">
+        <is>
+          <t>17/09/2023 01:02</t>
+        </is>
+      </c>
+      <c r="T62" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U62" t="inlineStr">
+        <is>
+          <t>26/09/2023 21:13</t>
+        </is>
+      </c>
+      <c r="V62" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/laliga/mallorca-barcelona/noQWUFYc/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/spain_laliga_2023-2024.xlsx
+++ b/2023/spain_laliga_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V62"/>
+  <dimension ref="A1:V67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6161,6 +6161,466 @@
         </is>
       </c>
     </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>laliga</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E63" s="2" t="n">
+        <v>45196.79166666666</v>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Ath Bilbao</t>
+        </is>
+      </c>
+      <c r="G63" t="n">
+        <v>2</v>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Getafe</t>
+        </is>
+      </c>
+      <c r="I63" t="n">
+        <v>2</v>
+      </c>
+      <c r="J63" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>17/09/2023 09:02</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>27/09/2023 18:31</t>
+        </is>
+      </c>
+      <c r="N63" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>17/09/2023 09:02</t>
+        </is>
+      </c>
+      <c r="P63" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="Q63" t="inlineStr">
+        <is>
+          <t>27/09/2023 18:49</t>
+        </is>
+      </c>
+      <c r="R63" t="n">
+        <v>5.44</v>
+      </c>
+      <c r="S63" t="inlineStr">
+        <is>
+          <t>17/09/2023 09:02</t>
+        </is>
+      </c>
+      <c r="T63" t="n">
+        <v>7.73</v>
+      </c>
+      <c r="U63" t="inlineStr">
+        <is>
+          <t>27/09/2023 18:49</t>
+        </is>
+      </c>
+      <c r="V63" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/laliga/ath-bilbao-getafe/zgsFCYIT/</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>laliga</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E64" s="2" t="n">
+        <v>45196.79166666666</v>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Real Madrid</t>
+        </is>
+      </c>
+      <c r="G64" t="n">
+        <v>2</v>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Las Palmas</t>
+        </is>
+      </c>
+      <c r="I64" t="n">
+        <v>0</v>
+      </c>
+      <c r="J64" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>23/09/2023 09:28</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>27/09/2023 18:29</t>
+        </is>
+      </c>
+      <c r="N64" t="n">
+        <v>6.76</v>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>23/09/2023 09:28</t>
+        </is>
+      </c>
+      <c r="P64" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q64" t="inlineStr">
+        <is>
+          <t>27/09/2023 18:29</t>
+        </is>
+      </c>
+      <c r="R64" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="S64" t="inlineStr">
+        <is>
+          <t>23/09/2023 09:28</t>
+        </is>
+      </c>
+      <c r="T64" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="U64" t="inlineStr">
+        <is>
+          <t>27/09/2023 18:29</t>
+        </is>
+      </c>
+      <c r="V64" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/laliga/real-madrid-las-palmas/GQHmRXXM/</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>laliga</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E65" s="2" t="n">
+        <v>45196.79166666666</v>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Villarreal</t>
+        </is>
+      </c>
+      <c r="G65" t="n">
+        <v>1</v>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Girona</t>
+        </is>
+      </c>
+      <c r="I65" t="n">
+        <v>2</v>
+      </c>
+      <c r="J65" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>17/09/2023 09:02</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>27/09/2023 18:51</t>
+        </is>
+      </c>
+      <c r="N65" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>17/09/2023 09:02</t>
+        </is>
+      </c>
+      <c r="P65" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="Q65" t="inlineStr">
+        <is>
+          <t>27/09/2023 18:51</t>
+        </is>
+      </c>
+      <c r="R65" t="n">
+        <v>4.72</v>
+      </c>
+      <c r="S65" t="inlineStr">
+        <is>
+          <t>17/09/2023 09:02</t>
+        </is>
+      </c>
+      <c r="T65" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="U65" t="inlineStr">
+        <is>
+          <t>27/09/2023 18:51</t>
+        </is>
+      </c>
+      <c r="V65" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/laliga/villarreal-girona/80EuTg3A/</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>laliga</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E66" s="2" t="n">
+        <v>45196.89583333334</v>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Cadiz CF</t>
+        </is>
+      </c>
+      <c r="G66" t="n">
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Rayo Vallecano</t>
+        </is>
+      </c>
+      <c r="I66" t="n">
+        <v>0</v>
+      </c>
+      <c r="J66" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>17/09/2023 09:02</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>27/09/2023 21:19</t>
+        </is>
+      </c>
+      <c r="N66" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>17/09/2023 09:02</t>
+        </is>
+      </c>
+      <c r="P66" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="Q66" t="inlineStr">
+        <is>
+          <t>27/09/2023 21:17</t>
+        </is>
+      </c>
+      <c r="R66" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="S66" t="inlineStr">
+        <is>
+          <t>17/09/2023 09:02</t>
+        </is>
+      </c>
+      <c r="T66" t="n">
+        <v>3</v>
+      </c>
+      <c r="U66" t="inlineStr">
+        <is>
+          <t>27/09/2023 21:30</t>
+        </is>
+      </c>
+      <c r="V66" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/laliga/cadiz-rayo-vallecano/CEYt8hRp/</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>laliga</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E67" s="2" t="n">
+        <v>45196.89583333334</v>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Valencia</t>
+        </is>
+      </c>
+      <c r="G67" t="n">
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Real Sociedad</t>
+        </is>
+      </c>
+      <c r="I67" t="n">
+        <v>1</v>
+      </c>
+      <c r="J67" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>17/09/2023 09:02</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>27/09/2023 21:27</t>
+        </is>
+      </c>
+      <c r="N67" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>17/09/2023 09:02</t>
+        </is>
+      </c>
+      <c r="P67" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="Q67" t="inlineStr">
+        <is>
+          <t>27/09/2023 21:27</t>
+        </is>
+      </c>
+      <c r="R67" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="S67" t="inlineStr">
+        <is>
+          <t>17/09/2023 09:02</t>
+        </is>
+      </c>
+      <c r="T67" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="U67" t="inlineStr">
+        <is>
+          <t>27/09/2023 21:27</t>
+        </is>
+      </c>
+      <c r="V67" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/laliga/valencia-real-sociedad/M3IqSDIG/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
